--- a/DATA_goal/Junction_Flooding_373.xlsx
+++ b/DATA_goal/Junction_Flooding_373.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.42361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.22</v>
+        <v>72.19</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.43055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.69</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.15</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.21</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.9</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.63</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.39</v>
+        <v>43.9</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.97</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.15</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.88</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.4375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.88</v>
+        <v>28.8</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.37</v>
+        <v>23.72</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.44</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.73</v>
+        <v>37.34</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.48</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.01</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.33</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.26</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.91</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.74</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.27</v>
+        <v>152.68</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.93</v>
+        <v>29.32</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.94</v>
+        <v>19.45</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.48</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.63</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.37</v>
+        <v>33.69</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.44444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>3.84</v>
+        <v>38.35</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.82</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_373.xlsx
+++ b/DATA_goal/Junction_Flooding_373.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.42361111111</v>
+        <v>45054.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.38</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.17</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.19</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.04</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.38</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.97</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.77</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.17</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.37</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.16</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.68</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.81</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.85</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.45</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.3</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.31</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.51</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.25</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.98</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.07</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.07</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.32</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.06</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.76</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.19</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.43055555555</v>
+        <v>45054.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.57</v>
+        <v>24.827</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.2</v>
+        <v>19.296</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>51.803</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>45.261</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>18.771</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>68.378</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>29.065</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>13.175</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>20.517</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>23.076</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>6.049</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>19.216</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>26.846</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>15.168</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>284.133</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>52.943</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>18.197</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>36.675</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>18.878</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.527</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>33.787</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>15.013</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>13.995</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>16.276</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.42</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>11.88</v>
+        <v>61.05</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.19</v>
+        <v>10.319</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.53</v>
+        <v>21.814</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.4375</v>
+        <v>45054.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.91</v>
+        <v>9.347</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.03</v>
+        <v>7.435</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.154</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.8</v>
+        <v>18.9</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.72</v>
+        <v>17.203</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.44</v>
+        <v>6.82</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.34</v>
+        <v>32.582</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.33</v>
+        <v>10.654</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.48</v>
+        <v>4.924</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.28</v>
+        <v>7.837</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.01</v>
+        <v>8.272</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.33</v>
+        <v>8.701000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.38</v>
+        <v>2.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.26</v>
+        <v>7.161</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.91</v>
+        <v>9.875999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.74</v>
+        <v>5.431</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.485</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.443</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>152.68</v>
+        <v>101.183</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.32</v>
+        <v>19.77</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.59</v>
+        <v>6.894</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.45</v>
+        <v>13.968</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.86</v>
+        <v>7.042</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.38</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.74</v>
+        <v>14.78</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>5.405</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.06</v>
+        <v>5.283</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.48</v>
+        <v>6.144</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.63</v>
+        <v>8.869</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.69</v>
+        <v>29.189</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.8</v>
+        <v>3.931</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.91</v>
+        <v>8.032</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.44444444445</v>
+        <v>45054.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.42</v>
+        <v>19.86</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.81</v>
+        <v>15.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.53</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.02</v>
+        <v>42.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.53</v>
+        <v>36.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.9</v>
+        <v>15.22</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.88</v>
+        <v>58.57</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.71</v>
+        <v>23.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.29</v>
+        <v>10.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.41</v>
+        <v>16.32</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.57</v>
+        <v>17.42</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.47</v>
+        <v>18.38</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.98</v>
+        <v>4.91</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.78</v>
+        <v>15.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.31</v>
+        <v>21.75</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.51</v>
+        <v>12.4</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.48</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.72</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.35</v>
+        <v>227.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.68</v>
+        <v>42.75</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.67</v>
+        <v>14.44</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.63</v>
+        <v>29.4</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.35</v>
+        <v>15.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.39</v>
+        <v>2.02</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.49</v>
+        <v>28.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.43</v>
+        <v>12.25</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.57</v>
+        <v>11.15</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3</v>
+        <v>13.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.76</v>
+        <v>18.44</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.82</v>
+        <v>52.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.77</v>
+        <v>8.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.45137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.9</v>
+        <v>17.63</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_373.xlsx
+++ b/DATA_goal/Junction_Flooding_373.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,30 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45054.50694444445</v>
+        <v>40751.42361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.928</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.344</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.978</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.253</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.511</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.567</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.041</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.748</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.048</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.182</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.791</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.479</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.593</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.503</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.042</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.417</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.098</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.946</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>4.642</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.645</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.748</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.484</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.765</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.536</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.068</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.612</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.035</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.082</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45054.51388888889</v>
+        <v>40751.43055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.827</v>
+        <v>3.566</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>19.296</v>
+        <v>3.197</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.635</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>51.803</v>
+        <v>8.69</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>45.261</v>
+        <v>7.155</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.771</v>
+        <v>3.213</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>68.378</v>
+        <v>13.004</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.065</v>
+        <v>5.243</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>13.175</v>
+        <v>2.584</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>20.517</v>
+        <v>3.982</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>21.87</v>
+        <v>4.127</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>23.076</v>
+        <v>3.901</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.049</v>
+        <v>1.09</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>19.216</v>
+        <v>3.043</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.846</v>
+        <v>4.631</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.168</v>
+        <v>2.844</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.794</v>
+        <v>0.145</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.952</v>
+        <v>0.272</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>284.133</v>
+        <v>43.897</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.943</v>
+        <v>9.535</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>18.197</v>
+        <v>2.96</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>36.675</v>
+        <v>5.876</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.878</v>
+        <v>3.972</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.527</v>
+        <v>0.444</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>33.787</v>
+        <v>6.6</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.013</v>
+        <v>2.685</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.995</v>
+        <v>3.154</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.276</v>
+        <v>3.764</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>23.25</v>
+        <v>4.345</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>61.05</v>
+        <v>11.875</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>10.319</v>
+        <v>2.193</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.814</v>
+        <v>3.525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45054.52083333334</v>
+        <v>40751.4375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.347</v>
+        <v>12.914</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.435</v>
+        <v>10.028</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.154</v>
+        <v>0.313</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.9</v>
+        <v>28.798</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.203</v>
+        <v>23.722</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.82</v>
+        <v>10.437</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32.582</v>
+        <v>37.339</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.654</v>
+        <v>16.334</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.924</v>
+        <v>7.475</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.837</v>
+        <v>11.284</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.272</v>
+        <v>12.013</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.701000000000001</v>
+        <v>12.332</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.24</v>
+        <v>3.379</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.161</v>
+        <v>10.256</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.875999999999999</v>
+        <v>14.906</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.431</v>
+        <v>8.742000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.485</v>
+        <v>0.19</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.443</v>
+        <v>0.499</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.183</v>
+        <v>152.684</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.77</v>
+        <v>29.32</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.894</v>
+        <v>9.586</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.968</v>
+        <v>19.448</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.042</v>
+        <v>10.864</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9429999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.78</v>
+        <v>18.738</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.405</v>
+        <v>8.545999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.283</v>
+        <v>8.057</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.144</v>
+        <v>9.483000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.869</v>
+        <v>12.633</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.281</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>29.189</v>
+        <v>33.69</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.931</v>
+        <v>5.799</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.032</v>
+        <v>11.906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45054.52777777778</v>
+        <v>40751.44444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.86</v>
+        <v>3.424</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.23</v>
+        <v>2.809</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>42.15</v>
+        <v>8.016999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.01</v>
+        <v>6.531</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.22</v>
+        <v>2.904</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.57</v>
+        <v>15.884</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.56</v>
+        <v>4.709</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.68</v>
+        <v>2.288</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.32</v>
+        <v>3.408</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.42</v>
+        <v>3.574</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.38</v>
+        <v>3.465</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.91</v>
+        <v>0.977</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.42</v>
+        <v>2.783</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.75</v>
+        <v>4.309</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.4</v>
+        <v>2.506</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.095</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.19</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>227.12</v>
+        <v>38.353</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.75</v>
+        <v>8.680999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.44</v>
+        <v>2.667</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>29.4</v>
+        <v>5.631</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.28</v>
+        <v>3.352</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.02</v>
+        <v>0.394</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.25</v>
+        <v>7.495</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.25</v>
+        <v>2.431</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.15</v>
+        <v>2.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.09</v>
+        <v>3.004</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.44</v>
+        <v>3.76</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.209</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>52.45</v>
+        <v>14.821</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.25</v>
+        <v>1.769</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.63</v>
+        <v>3.297</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.45137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_373.xlsx
+++ b/DATA_goal/Junction_Flooding_373.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,30 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.42361111111</v>
+        <v>45054.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.378</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.209</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.173</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.188</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.041</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.381</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.973</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.774</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.167</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.371</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.162</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.68</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.805</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.849</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.447</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.297</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.425</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19199999999999</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.308</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.642</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.505000000000001</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.25</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.977</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.068</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.066</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.321</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.735</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.773</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.064</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.76</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.189</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.43055555555</v>
+        <v>45054.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.566</v>
+        <v>24.827</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.197</v>
+        <v>19.296</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>51.803</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>45.261</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>18.771</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>68.378</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>29.065</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>13.175</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>20.517</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>23.076</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>6.049</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>19.216</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>26.846</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>15.168</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>284.133</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>52.943</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>18.197</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>36.675</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>18.878</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.527</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>33.787</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>15.013</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>13.995</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>16.276</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>7.155</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>3.213</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>13.004</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>5.243</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>2.584</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>3.982</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>4.127</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>3.901</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>3.043</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>4.631</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>2.844</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>43.897</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>9.535</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>5.876</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>2.685</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>3.764</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>4.345</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.419</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>11.875</v>
+        <v>61.05</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.193</v>
+        <v>10.319</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.525</v>
+        <v>21.814</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.4375</v>
+        <v>45054.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.914</v>
+        <v>9.347</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.028</v>
+        <v>7.435</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.313</v>
+        <v>0.154</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.798</v>
+        <v>18.9</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.722</v>
+        <v>17.203</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.437</v>
+        <v>6.82</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.339</v>
+        <v>32.582</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.334</v>
+        <v>10.654</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.475</v>
+        <v>4.924</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.284</v>
+        <v>7.837</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.013</v>
+        <v>8.272</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.332</v>
+        <v>8.701000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.379</v>
+        <v>2.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.256</v>
+        <v>7.161</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.906</v>
+        <v>9.875999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.742000000000001</v>
+        <v>5.431</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.485</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.499</v>
+        <v>0.443</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>152.684</v>
+        <v>101.183</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.32</v>
+        <v>19.77</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.586</v>
+        <v>6.894</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.448</v>
+        <v>13.968</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.864</v>
+        <v>7.042</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.38</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.738</v>
+        <v>14.78</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.545999999999999</v>
+        <v>5.405</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.057</v>
+        <v>5.283</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.483000000000001</v>
+        <v>6.144</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.633</v>
+        <v>8.869</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.281</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.69</v>
+        <v>29.189</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.799</v>
+        <v>3.931</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.906</v>
+        <v>8.032</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.44444444445</v>
+        <v>45054.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.424</v>
+        <v>19.86</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.809</v>
+        <v>15.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.53</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.016999999999999</v>
+        <v>42.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.531</v>
+        <v>36.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.904</v>
+        <v>15.22</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.884</v>
+        <v>58.57</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.709</v>
+        <v>23.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.288</v>
+        <v>10.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.408</v>
+        <v>16.32</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.574</v>
+        <v>17.42</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.465</v>
+        <v>18.38</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.977</v>
+        <v>4.91</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.783</v>
+        <v>15.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.309</v>
+        <v>21.75</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.506</v>
+        <v>12.4</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.095</v>
+        <v>0.48</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.72</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.353</v>
+        <v>227.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.680999999999999</v>
+        <v>42.75</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.667</v>
+        <v>14.44</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.631</v>
+        <v>29.4</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.352</v>
+        <v>15.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.394</v>
+        <v>2.02</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.495</v>
+        <v>28.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.431</v>
+        <v>12.25</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.57</v>
+        <v>11.15</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.004</v>
+        <v>13.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.76</v>
+        <v>18.44</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.209</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.821</v>
+        <v>52.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.769</v>
+        <v>8.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.297</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.45137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.9</v>
+        <v>17.63</v>
       </c>
     </row>
   </sheetData>
